--- a/Doc/战争工厂建筑.xlsx
+++ b/Doc/战争工厂建筑.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/DysonSphereProgramBlueprints/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55678A11-BEB1-7649-8F6F-0F3A2D480653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83A96D-C147-5543-8611-FD41ABA665C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-37480" yWindow="500" windowWidth="37420" windowHeight="20760" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
+    <workbookView xWindow="-34820" yWindow="500" windowWidth="34800" windowHeight="20760" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,14 +361,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,14 +389,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -417,14 +417,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -459,14 +459,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,10 +811,10 @@
   <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="BE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH21" sqref="BH21"/>
+      <selection pane="bottomRight" activeCell="BZ20" sqref="BZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4362,7 +4362,7 @@
       <c r="BT20">
         <v>-5.625</v>
       </c>
-      <c r="BX20">
+      <c r="BZ20">
         <v>6</v>
       </c>
       <c r="CD20">
@@ -5448,11 +5448,11 @@
       </c>
       <c r="BX28">
         <f>SUM(BX4:BX26)</f>
-        <v>-31.5</v>
+        <v>-37.5</v>
       </c>
       <c r="BZ28">
         <f>SUM(BZ4:BZ26)</f>
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="CB28">
         <f>SUM(CB4:CB26)</f>
@@ -5535,6 +5535,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="BS30:BV30"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="BW30:BZ30"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="AO30:AP30"/>
+    <mergeCell ref="BG30:BH30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="BQ30:BR30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AQ30:AT30"/>
+    <mergeCell ref="AW30:AZ30"/>
+    <mergeCell ref="BC30:BF30"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="CE1:CF1"/>
     <mergeCell ref="CE2:CF2"/>
     <mergeCell ref="S1:T1"/>
@@ -5551,88 +5621,18 @@
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="BG30:BH30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="BQ30:BR30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AQ30:AT30"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="AW30:AZ30"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC30:BF30"/>
-    <mergeCell ref="BS30:BV30"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="BW30:BZ30"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI30:BL30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O31:AB140 BW4:CF29 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 AE31:CF140">
+  <conditionalFormatting sqref="O31:AB140 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 AE31:CF140 BW4:CF19 BW21:CF29 BW20 BY20:CF20">
     <cfRule type="cellIs" dxfId="21" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:BV19 S4:T29 O20:AY20 BA20:BU20 O21:AQ21 AS21:BV21 O22:BV29">
-    <cfRule type="cellIs" dxfId="18" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5645,10 +5645,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5661,10 +5661,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA30:BC30">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5677,10 +5677,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS30">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5692,7 +5692,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW4:CF29 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 O31:AB140 AE31:CF140">
+  <conditionalFormatting sqref="Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 O31:AB140 AE31:CF140 BW4:CF19 BW21:CF29 BW20 BY20:CF20">
     <cfRule type="cellIs" dxfId="0" priority="142" operator="notEqual">
       <formula>0</formula>
     </cfRule>

--- a/Doc/战争工厂建筑.xlsx
+++ b/Doc/战争工厂建筑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/DysonSphereProgramBlueprints/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Resilio Sync/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83A96D-C147-5543-8611-FD41ABA665C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F26460-A6C5-B746-9173-4A249F61451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34820" yWindow="500" windowWidth="34800" windowHeight="20760" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
     <t>建筑工厂提供量</t>
   </si>
   <si>
-    <t>5制作台1</t>
-  </si>
-  <si>
     <t>电浆激发器（非增产）</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>加力推进器（非增产）</t>
+  </si>
+  <si>
+    <t>7制作台1</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -382,13 +403,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -403,13 +417,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -418,13 +425,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -459,14 +459,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,10 +811,10 @@
   <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="BE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ20" sqref="BZ20"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3" t="str">
         <f>A22</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
@@ -936,7 +936,7 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3" t="str">
         <f>A23</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
@@ -947,7 +947,7 @@
       <c r="BB1" s="3"/>
       <c r="BC1" s="3" t="str">
         <f>A24</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
@@ -958,7 +958,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3" t="str">
         <f>A25</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="BJ1" s="3"/>
       <c r="BK1" s="3"/>
@@ -983,7 +983,7 @@
       <c r="BV1" s="3"/>
       <c r="BW1" s="3" t="str">
         <f>A26</f>
-        <v>已选</v>
+        <v>未选</v>
       </c>
       <c r="BX1" s="3"/>
       <c r="BY1" s="3"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3" t="s">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AV2" s="3"/>
       <c r="AW2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3" t="s">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3" t="s">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3" t="s">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="BR2" s="3"/>
       <c r="BS2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BT2" s="3"/>
       <c r="BU2" s="3" t="s">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BX2" s="3"/>
       <c r="BY2" s="3" t="s">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1528,11 +1528,11 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <f>L4*AS4</f>
+        <f t="shared" ref="AT4:AT9" si="13">L4*AS4</f>
         <v>0</v>
       </c>
       <c r="AV4">
-        <f t="shared" ref="AV4:AV10" si="13">L4*AU4</f>
+        <f t="shared" ref="AV4:AV10" si="14">L4*AU4</f>
         <v>0</v>
       </c>
       <c r="AX4">
@@ -1540,11 +1540,11 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <f t="shared" ref="AZ4:AZ18" si="14">L4*AY4</f>
+        <f t="shared" ref="AZ4:AZ18" si="15">L4*AY4</f>
         <v>0</v>
       </c>
       <c r="BB4">
-        <f t="shared" ref="BB4:BB18" si="15">L4*BA4</f>
+        <f t="shared" ref="BB4:BB18" si="16">L4*BA4</f>
         <v>0</v>
       </c>
       <c r="BD4">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <f t="shared" ref="BF4:BF18" si="16">L4*BE4</f>
+        <f t="shared" ref="BF4:BF18" si="17">L4*BE4</f>
         <v>0</v>
       </c>
       <c r="BH4">
@@ -1564,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <f t="shared" ref="BL4:BL18" si="17">L4*BK4</f>
+        <f t="shared" ref="BL4:BL18" si="18">L4*BK4</f>
         <v>0</v>
       </c>
       <c r="BN4">
-        <f t="shared" ref="BN4:BN18" si="18">L4*BM4</f>
+        <f t="shared" ref="BN4:BN18" si="19">L4*BM4</f>
         <v>0</v>
       </c>
       <c r="BP4">
-        <f t="shared" ref="BP4:BP18" si="19">L4*BO4</f>
+        <f t="shared" ref="BP4:BP18" si="20">L4*BO4</f>
         <v>0</v>
       </c>
       <c r="BR4">
-        <f t="shared" ref="BR4:BR18" si="20">L4*BQ4</f>
+        <f t="shared" ref="BR4:BR18" si="21">L4*BQ4</f>
         <v>0</v>
       </c>
       <c r="BT4">
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="BV4">
-        <f t="shared" ref="BV4:BV18" si="21">L4*BU4</f>
+        <f t="shared" ref="BV4:BV18" si="22">L4*BU4</f>
         <v>0</v>
       </c>
       <c r="BX4">
@@ -1592,25 +1592,25 @@
         <v>0</v>
       </c>
       <c r="BZ4">
-        <f t="shared" ref="BZ4:BZ18" si="22">L4*BY4</f>
+        <f t="shared" ref="BZ4:BZ18" si="23">L4*BY4</f>
         <v>0</v>
       </c>
       <c r="CB4">
-        <f t="shared" ref="CB4:CB18" si="23">L4*CA4</f>
+        <f t="shared" ref="CB4:CB18" si="24">L4*CA4</f>
         <v>0</v>
       </c>
       <c r="CD4">
-        <f t="shared" ref="CD4:CD10" si="24">L4*CC4</f>
+        <f t="shared" ref="CD4:CD10" si="25">L4*CC4</f>
         <v>0</v>
       </c>
       <c r="CF4">
-        <f t="shared" ref="CF4:CF11" si="25">L4*CE4</f>
+        <f t="shared" ref="CF4:CF11" si="26">L4*CE4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F26" si="26">E5*D5*I5/J5*H5*60</f>
+        <f t="shared" ref="F5:F26" si="27">E5*D5*I5/J5*H5*60</f>
         <v>9.375</v>
       </c>
       <c r="G5" t="s">
@@ -1645,7 +1645,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L25" si="27">IF(B5="是",F5/H5/I5,0)</f>
+        <f t="shared" ref="L5:L25" si="28">IF(B5="是",F5/H5/I5,0)</f>
         <v>7.5</v>
       </c>
       <c r="P5">
@@ -1718,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <f>L5*AS5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX5">
-        <f t="shared" ref="AX5:AX18" si="28">L5*AW5</f>
+        <f t="shared" ref="AX5:AX18" si="29">L5*AW5</f>
         <v>0</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD5">
-        <f t="shared" ref="BD5:BD18" si="29">L5*BC5</f>
+        <f t="shared" ref="BD5:BD18" si="30">L5*BC5</f>
         <v>0</v>
       </c>
       <c r="BF5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH5">
@@ -1750,60 +1750,60 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <f t="shared" ref="BJ5:BJ26" si="30">L5*BI5</f>
+        <f t="shared" ref="BJ5:BJ26" si="31">L5*BI5</f>
         <v>0</v>
       </c>
       <c r="BL5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT5">
-        <f t="shared" ref="BT5:BT26" si="31">L5*BS5</f>
+        <f t="shared" ref="BT5:BT26" si="32">L5*BS5</f>
         <v>0</v>
       </c>
       <c r="BV5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX5">
-        <f t="shared" ref="BX5:BX26" si="32">L5*BW5</f>
+        <f t="shared" ref="BX5:BX26" si="33">L5*BW5</f>
         <v>0</v>
       </c>
       <c r="BZ5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CC5">
         <v>6</v>
       </c>
       <c r="CD5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="CF5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.25</v>
       </c>
       <c r="G6" t="s">
@@ -1838,7 +1838,7 @@
         <v>0.03</v>
       </c>
       <c r="L6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="P6">
@@ -1911,34 +1911,34 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <f>L6*AS6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE6">
         <v>2</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="BH6">
@@ -1946,57 +1946,57 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CF6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.375</v>
       </c>
       <c r="G7" t="s">
@@ -2031,7 +2031,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="P7">
@@ -2104,31 +2104,31 @@
         <v>6</v>
       </c>
       <c r="AT7">
-        <f>L7*AS7</f>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH7">
@@ -2136,60 +2136,60 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BM7">
         <v>9</v>
       </c>
       <c r="BN7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>67.5</v>
       </c>
       <c r="BP7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CF7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.625</v>
       </c>
       <c r="G8" t="s">
@@ -2224,7 +2224,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="P8">
@@ -2297,34 +2297,34 @@
         <v>5</v>
       </c>
       <c r="AT8">
-        <f>L8*AS8</f>
+        <f t="shared" si="13"/>
         <v>22.5</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE8">
         <v>10</v>
       </c>
       <c r="BF8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="BG8">
@@ -2335,57 +2335,57 @@
         <v>45</v>
       </c>
       <c r="BJ8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CF8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.03125</v>
       </c>
       <c r="G9" t="s">
@@ -2420,7 +2420,7 @@
         <v>1.171875E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.625</v>
       </c>
       <c r="P9">
@@ -2480,85 +2480,89 @@
       <c r="AS9">
         <v>5</v>
       </c>
+      <c r="AT9">
+        <f t="shared" si="13"/>
+        <v>28.125</v>
+      </c>
       <c r="AV9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE9">
         <v>5</v>
       </c>
       <c r="BF9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>28.125</v>
       </c>
       <c r="BJ9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CF9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2573,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.375</v>
       </c>
       <c r="G10" t="s">
@@ -2593,7 +2597,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="P10">
@@ -2636,7 +2640,7 @@
         <v>90</v>
       </c>
       <c r="AH10">
-        <f t="shared" ref="AH10:AH18" si="33">L10*AG10</f>
+        <f t="shared" ref="AH10:AH18" si="34">L10*AG10</f>
         <v>0</v>
       </c>
       <c r="AI10">
@@ -2647,7 +2651,7 @@
         <v>135</v>
       </c>
       <c r="AL10">
-        <f t="shared" ref="AL10:AL18" si="34">L10*AK10</f>
+        <f t="shared" ref="AL10:AL18" si="35">L10*AK10</f>
         <v>0</v>
       </c>
       <c r="AN10">
@@ -2659,99 +2663,99 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <f t="shared" ref="AR10:AR18" si="35">J10*AQ10</f>
+        <f t="shared" ref="AR10:AR18" si="36">J10*AQ10</f>
         <v>0</v>
       </c>
       <c r="AT10">
-        <f t="shared" ref="AT10:AT18" si="36">L10*AS10</f>
+        <f t="shared" ref="AT10:AT18" si="37">L10*AS10</f>
         <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH10">
-        <f t="shared" ref="BH10:BH18" si="37">L10*BG10</f>
+        <f t="shared" ref="BH10:BH18" si="38">L10*BG10</f>
         <v>0</v>
       </c>
       <c r="BJ10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CC10">
         <v>12</v>
       </c>
       <c r="CD10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="CF10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -2766,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.25</v>
       </c>
       <c r="G11" t="s">
@@ -2786,7 +2790,7 @@
         <v>0.03</v>
       </c>
       <c r="L11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="P11">
@@ -2825,14 +2829,14 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AK11">
         <v>3</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="AN11">
@@ -2844,91 +2848,91 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AS11">
         <v>9</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>81</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CE11">
         <v>6</v>
       </c>
       <c r="CF11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -2943,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.5</v>
       </c>
       <c r="G12" t="s">
@@ -2963,7 +2967,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="M12" t="s">
@@ -2981,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:T26" si="38">L12*S12</f>
+        <f t="shared" ref="T12:T26" si="39">L12*S12</f>
         <v>0</v>
       </c>
       <c r="V12">
@@ -3008,19 +3012,19 @@
         <v>72</v>
       </c>
       <c r="AF12">
-        <f t="shared" ref="AF12:AF18" si="39">L12*AE12</f>
+        <f t="shared" ref="AF12:AF18" si="40">L12*AE12</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f t="shared" ref="AJ12:AJ18" si="40">L12*AI12</f>
+        <f t="shared" ref="AJ12:AJ18" si="41">L12*AI12</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AN12">
@@ -3032,86 +3036,86 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV12">
-        <f t="shared" ref="AV12:AV18" si="41">L12*AU12</f>
+        <f t="shared" ref="AV12:AV18" si="42">L12*AU12</f>
         <v>0</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CA12">
         <v>6</v>
       </c>
       <c r="CB12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="CD12">
-        <f t="shared" ref="CD12:CD18" si="42">L12*CC12</f>
+        <f t="shared" ref="CD12:CD18" si="43">L12*CC12</f>
         <v>0</v>
       </c>
       <c r="CF12">
@@ -3121,7 +3125,7 @@
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -3136,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.625</v>
       </c>
       <c r="G13" t="s">
@@ -3156,7 +3160,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="P13">
@@ -3168,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V13">
@@ -3195,19 +3199,19 @@
         <v>20</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AN13">
@@ -3222,99 +3226,99 @@
         <v>90</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE13">
         <v>5</v>
       </c>
       <c r="BF13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22.5</v>
       </c>
       <c r="BH13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BQ13">
         <v>5</v>
       </c>
       <c r="BR13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22.5</v>
       </c>
       <c r="BT13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CF13">
-        <f t="shared" ref="CF13:CF26" si="43">L13*CE13</f>
+        <f t="shared" ref="CF13:CF26" si="44">L13*CE13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -3329,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>28.125</v>
       </c>
       <c r="G14" t="s">
@@ -3349,7 +3353,7 @@
         <v>0.1875</v>
       </c>
       <c r="L14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>22.5</v>
       </c>
       <c r="O14">
@@ -3364,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V14">
@@ -3388,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI14">
         <v>2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>45</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AN14">
@@ -3415,99 +3419,99 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AS14">
         <v>1</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>22.5</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CC14">
         <v>1</v>
       </c>
       <c r="CD14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22.5</v>
       </c>
       <c r="CF14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -3522,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>14.0625</v>
       </c>
       <c r="G15" t="s">
@@ -3542,7 +3546,7 @@
         <v>4.6875E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.25</v>
       </c>
       <c r="M15" t="s">
@@ -3560,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V15">
@@ -3584,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI15">
         <v>2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>22.5</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AN15">
@@ -3614,96 +3618,96 @@
         <v>11.25</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BM15">
         <v>2</v>
       </c>
       <c r="BN15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22.5</v>
       </c>
       <c r="BP15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CF15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -3718,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>14.0625</v>
       </c>
       <c r="G16" t="s">
@@ -3738,7 +3742,7 @@
         <v>4.6875E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.25</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -3756,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V16">
@@ -3780,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK16">
         <v>1</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.25</v>
       </c>
       <c r="AN16">
@@ -3810,96 +3814,96 @@
         <v>11.25</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BQ16">
         <v>1</v>
       </c>
       <c r="BR16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.25</v>
       </c>
       <c r="BT16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CB16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CF16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -3914,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.25</v>
       </c>
       <c r="G17" t="s">
@@ -3930,11 +3934,11 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K18" si="44">L17/60/J17</f>
+        <f t="shared" ref="K17:K18" si="45">L17/60/J17</f>
         <v>0.03</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L18" si="45">IF(B17="是",F17/H17/I17,0)</f>
+        <f t="shared" ref="L17:L18" si="46">IF(B17="是",F17/H17/I17,0)</f>
         <v>9</v>
       </c>
       <c r="P17">
@@ -3946,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V17">
@@ -3970,25 +3974,25 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AG17">
         <v>5</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>45</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK17">
         <v>2</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="AN17">
@@ -4000,99 +4004,99 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BQ17">
         <v>3</v>
       </c>
       <c r="BR17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="BT17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BY17">
         <v>1</v>
       </c>
       <c r="BZ17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="CB17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CF17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -4107,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.03125</v>
       </c>
       <c r="G18" t="s">
@@ -4123,11 +4127,11 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.171875E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5.625</v>
       </c>
       <c r="P18">
@@ -4139,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V18">
@@ -4163,22 +4167,22 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK18">
         <v>4</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>22.5</v>
       </c>
       <c r="AN18">
@@ -4190,96 +4194,96 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BB18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BH18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BK18">
         <v>20</v>
       </c>
       <c r="BL18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>112.5</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BR18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BT18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BU18">
         <v>1</v>
       </c>
       <c r="BV18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.625</v>
       </c>
       <c r="BX18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BY18">
         <v>4</v>
       </c>
       <c r="BZ18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22.5</v>
       </c>
       <c r="CB18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="CD18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CF18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -4297,7 +4301,7 @@
         <v>-108</v>
       </c>
       <c r="V20">
-        <v>-337.5</v>
+        <v>-405</v>
       </c>
       <c r="X20">
         <v>-90</v>
@@ -4306,7 +4310,7 @@
         <v>-90</v>
       </c>
       <c r="AB20">
-        <v>-540</v>
+        <v>-675</v>
       </c>
       <c r="AD20">
         <v>-72</v>
@@ -4321,7 +4325,7 @@
         <v>-450</v>
       </c>
       <c r="AL20">
-        <v>-146.25</v>
+        <v>-101.25</v>
       </c>
       <c r="AN20">
         <v>-117</v>
@@ -4329,19 +4333,19 @@
       <c r="AP20">
         <v>-442.5</v>
       </c>
-      <c r="AT20">
+      <c r="AR20">
         <v>-2.25</v>
       </c>
       <c r="AV20">
         <v>-45</v>
       </c>
       <c r="AX20">
-        <v>11.25</v>
+        <v>22.5</v>
       </c>
       <c r="BB20">
-        <v>-105</v>
-      </c>
-      <c r="BF20">
+        <v>-90</v>
+      </c>
+      <c r="BD20">
         <v>-1.125</v>
       </c>
       <c r="BH20">
@@ -4362,7 +4366,7 @@
       <c r="BT20">
         <v>-5.625</v>
       </c>
-      <c r="BZ20">
+      <c r="BX20">
         <v>6</v>
       </c>
       <c r="CD20">
@@ -4371,23 +4375,23 @@
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D22">
         <v>0.75</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <f t="shared" si="26"/>
-        <v>168.75</v>
+        <f t="shared" si="27"/>
+        <v>196.875</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -4402,12 +4406,12 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K25" si="46">L22/60/J22</f>
-        <v>1.125</v>
+        <f t="shared" ref="K22:K25" si="47">L22/60/J22</f>
+        <v>1.3125</v>
       </c>
       <c r="L22">
-        <f t="shared" si="27"/>
-        <v>135</v>
+        <f t="shared" si="28"/>
+        <v>157.5</v>
       </c>
       <c r="P22">
         <f>L22*O22</f>
@@ -4418,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V22">
@@ -4438,7 +4442,7 @@
       </c>
       <c r="AB22">
         <f>L22*AA22</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AD22">
         <f>J22*AC22</f>
@@ -4473,7 +4477,7 @@
       </c>
       <c r="AR22">
         <f>L22*AQ22</f>
-        <v>-168.75</v>
+        <v>-196.875</v>
       </c>
       <c r="AT22">
         <f>L22*AS22</f>
@@ -4492,7 +4496,7 @@
       </c>
       <c r="AZ22">
         <f>L22*AY22</f>
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="BB22">
         <f>L22*BA22</f>
@@ -4511,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL22">
@@ -4531,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="BT22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV22">
@@ -4539,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="BX22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ22">
@@ -4555,29 +4559,29 @@
         <v>0</v>
       </c>
       <c r="CF22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>0.75</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <f t="shared" si="26"/>
-        <v>281.25</v>
+        <f t="shared" si="27"/>
+        <v>337.5</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -4592,12 +4596,12 @@
         <v>2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="46"/>
-        <v>0.9375</v>
+        <f t="shared" si="47"/>
+        <v>1.125</v>
       </c>
       <c r="L23">
-        <f t="shared" si="27"/>
-        <v>112.5</v>
+        <f t="shared" si="28"/>
+        <v>135</v>
       </c>
       <c r="P23">
         <f>L23*O23</f>
@@ -4608,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U23">
@@ -4616,7 +4620,7 @@
       </c>
       <c r="V23">
         <f>L23*U23</f>
-        <v>337.5</v>
+        <v>405</v>
       </c>
       <c r="X23">
         <f>L23*W23</f>
@@ -4674,8 +4678,8 @@
         <v>-2.5</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:AX26" si="47">L23*AW23</f>
-        <v>-281.25</v>
+        <f t="shared" ref="AX23:AX26" si="48">L23*AW23</f>
+        <v>-337.5</v>
       </c>
       <c r="AZ23">
         <f>L23*AY23</f>
@@ -4686,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <f t="shared" ref="BD23:BD26" si="48">L23*BC23</f>
+        <f t="shared" ref="BD23:BD26" si="49">L23*BC23</f>
         <v>0</v>
       </c>
       <c r="BF23">
@@ -4698,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL23">
@@ -4718,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="BT23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV23">
@@ -4726,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="BX23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ23">
@@ -4742,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="CF23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -4763,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>112.5</v>
       </c>
       <c r="G24" t="s">
@@ -4779,11 +4783,11 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="L24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="P24">
@@ -4798,7 +4802,7 @@
         <v>270</v>
       </c>
       <c r="T24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V24">
@@ -4861,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AZ24">
@@ -4879,7 +4883,7 @@
         <v>-1.25</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-112.5</v>
       </c>
       <c r="BF24">
@@ -4891,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL24">
@@ -4911,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="BT24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV24">
@@ -4919,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="BX24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ24">
@@ -4935,19 +4939,19 @@
         <v>0</v>
       </c>
       <c r="CF24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0.75</v>
@@ -4956,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>112.5</v>
       </c>
       <c r="G25" t="s">
@@ -4972,11 +4976,11 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.25</v>
       </c>
       <c r="L25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="P25">
@@ -4988,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V25">
@@ -5054,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AZ25">
@@ -5066,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF25">
@@ -5081,7 +5085,7 @@
         <v>-1.25</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-112.5</v>
       </c>
       <c r="BL25">
@@ -5104,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV25">
@@ -5112,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="BX25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ25">
@@ -5128,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -5149,7 +5153,7 @@
         <v>4</v>
       </c>
       <c r="F26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>37.5</v>
       </c>
       <c r="G26" t="s">
@@ -5165,11 +5169,11 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26" si="49">L26/60/J26</f>
+        <f t="shared" ref="K26" si="50">L26/60/J26</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26" si="50">IF(B26="是",F26/H26/I26,0)</f>
+        <f t="shared" ref="L26" si="51">IF(B26="是",F26/H26/I26,0)</f>
         <v>30</v>
       </c>
       <c r="P26">
@@ -5181,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V26">
@@ -5247,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AZ26">
@@ -5259,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF26">
@@ -5271,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL26">
@@ -5291,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="BT26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV26">
@@ -5302,7 +5306,7 @@
         <v>-1.25</v>
       </c>
       <c r="BX26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-37.5</v>
       </c>
       <c r="BZ26">
@@ -5318,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="CF26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -5352,7 +5356,7 @@
       </c>
       <c r="AB28">
         <f>SUM(AB4:AB26)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <f>SUM(AD4:AD26)</f>
@@ -5372,7 +5376,7 @@
       </c>
       <c r="AL28">
         <f>SUM(AL4:AL26)</f>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AN28">
         <f>SUM(AN4:AN26)</f>
@@ -5384,11 +5388,11 @@
       </c>
       <c r="AR28">
         <f>SUM(AR4:AR26)</f>
-        <v>-168.75</v>
+        <v>-199.125</v>
       </c>
       <c r="AT28">
         <f>SUM(AT4:AT26)</f>
-        <v>168.75</v>
+        <v>199.125</v>
       </c>
       <c r="AV28">
         <f>SUM(AV4:AV26)</f>
@@ -5396,23 +5400,23 @@
       </c>
       <c r="AX28">
         <f>SUM(AX4:AX26)</f>
-        <v>-270</v>
+        <v>-315</v>
       </c>
       <c r="AZ28">
         <f>SUM(AZ4:AZ26)</f>
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="BB28">
         <f>SUM(BB4:BB26)</f>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="BD28">
         <f>SUM(BD4:BD26)</f>
-        <v>-112.5</v>
+        <v>-113.625</v>
       </c>
       <c r="BF28">
         <f>SUM(BF4:BF26)</f>
-        <v>112.5</v>
+        <v>113.625</v>
       </c>
       <c r="BH28">
         <f>SUM(BH4:BH26)</f>
@@ -5448,11 +5452,11 @@
       </c>
       <c r="BX28">
         <f>SUM(BX4:BX26)</f>
-        <v>-37.5</v>
+        <v>-31.5</v>
       </c>
       <c r="BZ28">
         <f>SUM(BZ4:BZ26)</f>
-        <v>37.5</v>
+        <v>31.5</v>
       </c>
       <c r="CB28">
         <f>SUM(CB4:CB26)</f>
@@ -5535,13 +5539,69 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="BS30:BV30"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="BW30:BZ30"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="CE1:CF1"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AO30:AP30"/>
+    <mergeCell ref="BG30:BH30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="BQ30:BR30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AQ30:AT30"/>
+    <mergeCell ref="AW30:AZ30"/>
+    <mergeCell ref="BC30:BF30"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="BC2:BD2"/>
     <mergeCell ref="CC2:CD2"/>
     <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="BA2:BB2"/>
@@ -5558,81 +5618,25 @@
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="BS2:BT2"/>
     <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="BG30:BH30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="BQ30:BR30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AQ30:AT30"/>
-    <mergeCell ref="AW30:AZ30"/>
-    <mergeCell ref="BC30:BF30"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="BS30:BV30"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="BW30:BZ30"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI30:BL30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O31:AB140 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 AE31:CF140 BW4:CF19 BW21:CF29 BW20 BY20:CF20">
+  <conditionalFormatting sqref="O31:AB140 BW20:BY20 CA20:CF20 BW21:CF29 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 AE31:CF140">
     <cfRule type="cellIs" dxfId="21" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:BV19 S4:T29 O20:AY20 BA20:BU20 O21:AQ21 AS21:BV21 O22:BV29">
-    <cfRule type="cellIs" dxfId="18" priority="37" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="O4:CF19 S4:T29 O20:AS20 AU20:AY20 BA20:BE20 BG20:BU20 O21:AQ21 AS21:BV21 O22:BV29">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5645,10 +5649,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5661,10 +5665,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA30:BC30">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5677,10 +5681,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS30">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5692,7 +5696,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 O31:AB140 AE31:CF140 BW4:CF19 BW21:CF29 BW20 BY20:CF20">
+  <conditionalFormatting sqref="BW20:BY20 CA20:CF20 BW21:CF29 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 O31:AB140 AE31:CF140">
     <cfRule type="cellIs" dxfId="0" priority="142" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -5736,7 +5740,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O1:AC1 A4:A26 A30</xm:sqref>
+          <xm:sqref>O1:AC1 A30 A4:A26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="27" operator="equal" id="{FD3047B5-6CEE-424B-AFB0-4267E8838504}">

--- a/Doc/战争工厂建筑.xlsx
+++ b/Doc/战争工厂建筑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Resilio Sync/Personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DysonSphereProgramBlueprints\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F26460-A6C5-B746-9173-4A249F61451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898B160-04C0-406D-906C-ACD31445898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,6 +337,41 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -438,20 +473,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -473,28 +494,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,116 +811,116 @@
   <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:A26"/>
+      <selection pane="bottomRight" activeCell="BX26" sqref="BX26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" customWidth="1"/>
-    <col min="39" max="39" width="4.6640625" customWidth="1"/>
-    <col min="41" max="41" width="4.6640625" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" customWidth="1"/>
-    <col min="45" max="45" width="4.6640625" customWidth="1"/>
-    <col min="47" max="47" width="4.6640625" customWidth="1"/>
-    <col min="49" max="49" width="4.6640625" customWidth="1"/>
-    <col min="51" max="51" width="4.6640625" customWidth="1"/>
-    <col min="53" max="53" width="4.6640625" customWidth="1"/>
-    <col min="55" max="55" width="4.6640625" customWidth="1"/>
-    <col min="57" max="57" width="4.6640625" customWidth="1"/>
-    <col min="59" max="59" width="4.6640625" customWidth="1"/>
-    <col min="61" max="61" width="4.6640625" customWidth="1"/>
-    <col min="63" max="63" width="4.6640625" customWidth="1"/>
-    <col min="65" max="65" width="4.6640625" customWidth="1"/>
-    <col min="67" max="67" width="4.6640625" customWidth="1"/>
-    <col min="69" max="69" width="4.6640625" customWidth="1"/>
-    <col min="70" max="70" width="8.83203125" customWidth="1"/>
-    <col min="71" max="71" width="4.6640625" customWidth="1"/>
-    <col min="73" max="73" width="4.6640625" customWidth="1"/>
-    <col min="75" max="75" width="4.6640625" customWidth="1"/>
-    <col min="77" max="77" width="4.6640625" customWidth="1"/>
-    <col min="79" max="79" width="4.6640625" customWidth="1"/>
-    <col min="81" max="81" width="4.6640625" customWidth="1"/>
-    <col min="83" max="83" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="5.1796875" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" customWidth="1"/>
+    <col min="11" max="12" width="8.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="4.81640625" customWidth="1"/>
+    <col min="15" max="15" width="4.6328125" customWidth="1"/>
+    <col min="17" max="17" width="4.6328125" customWidth="1"/>
+    <col min="19" max="19" width="4.6328125" customWidth="1"/>
+    <col min="21" max="21" width="4.6328125" customWidth="1"/>
+    <col min="23" max="23" width="4.6328125" customWidth="1"/>
+    <col min="25" max="25" width="4.6328125" customWidth="1"/>
+    <col min="27" max="27" width="4.6328125" customWidth="1"/>
+    <col min="29" max="29" width="4.6328125" customWidth="1"/>
+    <col min="31" max="31" width="4.6328125" customWidth="1"/>
+    <col min="33" max="33" width="4.6328125" customWidth="1"/>
+    <col min="35" max="35" width="4.6328125" customWidth="1"/>
+    <col min="37" max="37" width="4.6328125" customWidth="1"/>
+    <col min="39" max="39" width="4.6328125" customWidth="1"/>
+    <col min="41" max="41" width="4.6328125" customWidth="1"/>
+    <col min="43" max="43" width="4.6328125" customWidth="1"/>
+    <col min="45" max="45" width="4.6328125" customWidth="1"/>
+    <col min="47" max="47" width="4.6328125" customWidth="1"/>
+    <col min="49" max="49" width="4.6328125" customWidth="1"/>
+    <col min="51" max="51" width="4.6328125" customWidth="1"/>
+    <col min="53" max="53" width="4.6328125" customWidth="1"/>
+    <col min="55" max="55" width="4.6328125" customWidth="1"/>
+    <col min="57" max="57" width="4.6328125" customWidth="1"/>
+    <col min="59" max="59" width="4.6328125" customWidth="1"/>
+    <col min="61" max="61" width="4.6328125" customWidth="1"/>
+    <col min="63" max="63" width="4.6328125" customWidth="1"/>
+    <col min="65" max="65" width="4.6328125" customWidth="1"/>
+    <col min="67" max="67" width="4.6328125" customWidth="1"/>
+    <col min="69" max="69" width="4.6328125" customWidth="1"/>
+    <col min="70" max="70" width="8.81640625" customWidth="1"/>
+    <col min="71" max="71" width="4.6328125" customWidth="1"/>
+    <col min="73" max="73" width="4.6328125" customWidth="1"/>
+    <col min="75" max="75" width="4.6328125" customWidth="1"/>
+    <col min="77" max="77" width="4.6328125" customWidth="1"/>
+    <col min="79" max="79" width="4.6328125" customWidth="1"/>
+    <col min="81" max="81" width="4.6328125" customWidth="1"/>
+    <col min="83" max="83" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.35">
       <c r="O1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3" t="str">
@@ -931,7 +931,7 @@
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3" t="str">
@@ -942,7 +942,7 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BB1" s="3"/>
       <c r="BC1" s="3" t="str">
@@ -953,7 +953,7 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
       <c r="BG1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BH1" s="3"/>
       <c r="BI1" s="3" t="str">
@@ -964,19 +964,19 @@
       <c r="BK1" s="3"/>
       <c r="BL1" s="3"/>
       <c r="BM1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BN1" s="3"/>
       <c r="BO1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BP1" s="3"/>
       <c r="BQ1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BR1" s="3"/>
       <c r="BS1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BT1" s="3"/>
       <c r="BU1" s="3"/>
@@ -989,19 +989,19 @@
       <c r="BY1" s="3"/>
       <c r="BZ1" s="3"/>
       <c r="CA1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CB1" s="3"/>
       <c r="CC1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CD1" s="3"/>
       <c r="CE1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CF1" s="3"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="CF2" s="3"/>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
         <v>69</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>-157.5</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>32</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.35">
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="S30" s="3"/>
@@ -5628,76 +5628,76 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O31:AB140 BW20:BY20 CA20:CF20 BW21:CF29 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 AE31:CF140">
-    <cfRule type="cellIs" dxfId="21" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:CF19 S4:T29 O20:AS20 AU20:AY20 BA20:BE20 BG20:BU20 O21:AQ21 AS21:BV21 O22:BV29">
-    <cfRule type="cellIs" dxfId="18" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:T140">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU30:AW30">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA30:BC30">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI30">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS30">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW30">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW20:BY20 CA20:CF20 BW21:CF29 Q30:AB30 AI30:AJ30 BM30:BP30 CA30:CF30 AC30:AD140 O31:AB140 AE31:CF140">
-    <cfRule type="cellIs" dxfId="0" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="142" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5740,7 +5740,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O1:AC1 A30 A4:A26</xm:sqref>
+          <xm:sqref>A30 A4:A26 O1:AC1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="27" operator="equal" id="{FD3047B5-6CEE-424B-AFB0-4267E8838504}">
@@ -5763,7 +5763,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AG1:AQ1 AU1:AW1 BA1:BC1 BG1:BI1 BM1:BS1 BW1 CA1:CF1</xm:sqref>
+          <xm:sqref>AU1:AW1 BA1:BC1 BG1:BI1 BW1 AG1:AQ1 BM1:BS1 CA1:CF1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5773,7 +5773,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A30 O1:AC1 AG1:AQ1 AU1:AW1 BA1:BC1 BG1:BI1 BM1:BS1 BW1 CA1:CF1 A4:A26</xm:sqref>
+          <xm:sqref>A30 A4:A26 O1:AC1 AU1:AW1 BA1:BC1 BG1:BI1 AG1:AQ1 BW1 BM1:BS1 CA1:CF1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BF54B68-411F-4954-A052-D29DEE8ACFE2}">
           <x14:formula1>
@@ -5795,9 +5795,9 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>42</v>
       </c>
